--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_263__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_263__Reeval_LHS_Modell_1.2.xlsx
@@ -5891,7 +5891,7 @@
                   <c:v>65.3780517578125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.6646614074707</c:v>
+                  <c:v>48.66465759277344</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>54.75201797485352</c:v>
@@ -5909,13 +5909,13 @@
                   <c:v>51.53379440307617</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56.35015869140625</c:v>
+                  <c:v>56.35016250610352</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.25997161865234</c:v>
+                  <c:v>50.25996780395508</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.82744979858398</c:v>
+                  <c:v>49.82744216918945</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>48.73501586914062</c:v>
@@ -5933,7 +5933,7 @@
                   <c:v>52.63593292236328</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48.30600357055664</c:v>
+                  <c:v>48.30599975585938</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>50.64363479614258</c:v>
@@ -5948,7 +5948,7 @@
                   <c:v>49.00862121582031</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48.81221389770508</c:v>
+                  <c:v>48.81221008300781</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>48.18735885620117</c:v>
@@ -5969,10 +5969,10 @@
                   <c:v>50.46361923217773</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>47.74597549438477</c:v>
+                  <c:v>47.7459716796875</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>53.85987854003906</c:v>
+                  <c:v>53.8598747253418</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>49.46079254150391</c:v>
@@ -5981,7 +5981,7 @@
                   <c:v>49.39298629760742</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45.56293106079102</c:v>
+                  <c:v>45.56292724609375</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>52.4703483581543</c:v>
@@ -5996,10 +5996,10 @@
                   <c:v>43.28482055664062</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>47.03274917602539</c:v>
+                  <c:v>47.03275299072266</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>52.2289924621582</c:v>
+                  <c:v>52.22900009155273</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>51.87317657470703</c:v>
@@ -6011,13 +6011,13 @@
                   <c:v>50.20880508422852</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>54.76002883911133</c:v>
+                  <c:v>54.7600212097168</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>47.51235961914062</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>52.51490783691406</c:v>
+                  <c:v>52.51490020751953</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45.70354843139648</c:v>
@@ -6041,13 +6041,13 @@
                   <c:v>50.84929275512695</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>45.11063003540039</c:v>
+                  <c:v>45.11063385009766</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>49.83916854858398</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>49.13750076293945</c:v>
+                  <c:v>49.13750457763672</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>51.89067459106445</c:v>
@@ -6101,19 +6101,19 @@
                   <c:v>42.33213424682617</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>39.29879379272461</c:v>
+                  <c:v>39.29878997802734</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>63.09181976318359</c:v>
+                  <c:v>63.09181594848633</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>47.04153060913086</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>51.55326461791992</c:v>
+                  <c:v>51.55325698852539</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>59.76331329345703</c:v>
+                  <c:v>59.76330947875977</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>59.83464431762695</c:v>
@@ -6122,7 +6122,7 @@
                   <c:v>55.47750854492188</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>52.20279693603516</c:v>
+                  <c:v>52.20280456542969</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45.90389633178711</c:v>
@@ -6131,7 +6131,7 @@
                   <c:v>53.92855453491211</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>65.03849029541016</c:v>
+                  <c:v>65.03849792480469</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>51.84440231323242</c:v>
@@ -7051,7 +7051,7 @@
         <v>97.0509</v>
       </c>
       <c r="F8">
-        <v>48.6646614074707</v>
+        <v>48.66465759277344</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>96.46769999999999</v>
       </c>
       <c r="F14">
-        <v>56.35015869140625</v>
+        <v>56.35016250610352</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>92.2294</v>
       </c>
       <c r="F15">
-        <v>50.25997161865234</v>
+        <v>50.25996780395508</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>49.82744979858398</v>
+        <v>49.82744216918945</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>98.35980000000001</v>
       </c>
       <c r="F22">
-        <v>48.30600357055664</v>
+        <v>48.30599975585938</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>97.9389</v>
       </c>
       <c r="F27">
-        <v>48.81221389770508</v>
+        <v>48.81221008300781</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>47.74597549438477</v>
+        <v>47.7459716796875</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>93.7411</v>
       </c>
       <c r="F35">
-        <v>53.85987854003906</v>
+        <v>53.8598747253418</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>95.404</v>
       </c>
       <c r="F38">
-        <v>45.56293106079102</v>
+        <v>45.56292724609375</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>88.684</v>
       </c>
       <c r="F43">
-        <v>47.03274917602539</v>
+        <v>47.03275299072266</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>92.8233</v>
       </c>
       <c r="F44">
-        <v>52.2289924621582</v>
+        <v>52.22900009155273</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>54.76002883911133</v>
+        <v>54.7600212097168</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>88.3647</v>
       </c>
       <c r="F50">
-        <v>52.51490783691406</v>
+        <v>52.51490020751953</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>45.11063003540039</v>
+        <v>45.11063385009766</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>97.90219999999999</v>
       </c>
       <c r="F60">
-        <v>49.13750076293945</v>
+        <v>49.13750457763672</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>71.7201</v>
       </c>
       <c r="F78">
-        <v>39.29879379272461</v>
+        <v>39.29878997802734</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>97.88209999999999</v>
       </c>
       <c r="F79">
-        <v>63.09181976318359</v>
+        <v>63.09181594848633</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>51.55326461791992</v>
+        <v>51.55325698852539</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>97.7243</v>
       </c>
       <c r="F82">
-        <v>59.76331329345703</v>
+        <v>59.76330947875977</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>93.43989999999999</v>
       </c>
       <c r="F85">
-        <v>52.20279693603516</v>
+        <v>52.20280456542969</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>65.03849029541016</v>
+        <v>65.03849792480469</v>
       </c>
     </row>
     <row r="89" spans="1:6">
